--- a/Datos informalidad/Output/tcp_mujeres_informalidad_asalariadas_privadas.xlsx
+++ b/Datos informalidad/Output/tcp_mujeres_informalidad_asalariadas_privadas.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4870,6 +4870,74 @@
         <v>0.147</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ene2021_01</t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>191061.6390015191</v>
+      </c>
+      <c r="C133">
+        <v>1736297.16131114</v>
+      </c>
+      <c r="D133">
+        <v>2021</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2">
+        <v>44197</v>
+      </c>
+      <c r="G133">
+        <v>87617.06909505287</v>
+      </c>
+      <c r="H133">
+        <v>252409.0757303016</v>
+      </c>
+      <c r="I133">
+        <v>0.459</v>
+      </c>
+      <c r="J133">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ene2021_02</t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>196965.2337081053</v>
+      </c>
+      <c r="C134">
+        <v>1735097.762498726</v>
+      </c>
+      <c r="D134">
+        <v>2021</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" s="2">
+        <v>44228</v>
+      </c>
+      <c r="G134">
+        <v>88398.09196287178</v>
+      </c>
+      <c r="H134">
+        <v>244914.442014082</v>
+      </c>
+      <c r="I134">
+        <v>0.449</v>
+      </c>
+      <c r="J134">
+        <v>0.141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos informalidad/Output/tcp_mujeres_informalidad_asalariadas_privadas.xlsx
+++ b/Datos informalidad/Output/tcp_mujeres_informalidad_asalariadas_privadas.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4938,6 +4938,40 @@
         <v>0.141</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ene2021_03</t>
+        </is>
+      </c>
+      <c r="B135">
+        <v>195461.137628981</v>
+      </c>
+      <c r="C135">
+        <v>1730541.01957347</v>
+      </c>
+      <c r="D135">
+        <v>2021</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135" s="2">
+        <v>44256</v>
+      </c>
+      <c r="G135">
+        <v>78799.6051524542</v>
+      </c>
+      <c r="H135">
+        <v>233219.1287551152</v>
+      </c>
+      <c r="I135">
+        <v>0.403</v>
+      </c>
+      <c r="J135">
+        <v>0.135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos informalidad/Output/tcp_mujeres_informalidad_asalariadas_privadas.xlsx
+++ b/Datos informalidad/Output/tcp_mujeres_informalidad_asalariadas_privadas.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4972,6 +4972,40 @@
         <v>0.135</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ene2021_04</t>
+        </is>
+      </c>
+      <c r="B136">
+        <v>197131.455702093</v>
+      </c>
+      <c r="C136">
+        <v>1730467.410676035</v>
+      </c>
+      <c r="D136">
+        <v>2021</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" s="2">
+        <v>44287</v>
+      </c>
+      <c r="G136">
+        <v>78225.15936139587</v>
+      </c>
+      <c r="H136">
+        <v>227666.4837696879</v>
+      </c>
+      <c r="I136">
+        <v>0.397</v>
+      </c>
+      <c r="J136">
+        <v>0.132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos informalidad/Output/tcp_mujeres_informalidad_asalariadas_privadas.xlsx
+++ b/Datos informalidad/Output/tcp_mujeres_informalidad_asalariadas_privadas.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5006,6 +5006,40 @@
         <v>0.132</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ene2021_05</t>
+        </is>
+      </c>
+      <c r="B137">
+        <v>190195.9142827009</v>
+      </c>
+      <c r="C137">
+        <v>1742161.225087195</v>
+      </c>
+      <c r="D137">
+        <v>2021</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137" s="2">
+        <v>44317</v>
+      </c>
+      <c r="G137">
+        <v>79509.56670808405</v>
+      </c>
+      <c r="H137">
+        <v>221653.2296618781</v>
+      </c>
+      <c r="I137">
+        <v>0.418</v>
+      </c>
+      <c r="J137">
+        <v>0.127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
